--- a/Pseudo Code/calculateFixtures.xlsx
+++ b/Pseudo Code/calculateFixtures.xlsx
@@ -65,9 +65,6 @@
     <t>fixtures String</t>
   </si>
   <si>
-    <t>add each fixture to fixtures String</t>
-  </si>
-  <si>
     <t>end loop</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>printFixtures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   add each fixture to fixtures String</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -573,19 +573,19 @@
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
